--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T07:18:49+00:00</t>
+    <t>2023-02-08T06:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T06:02:36+00:00</t>
+    <t>2023-02-08T06:03:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T06:03:05+00:00</t>
+    <t>2023-02-13T10:40:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T10:40:45+00:00</t>
+    <t>2023-02-14T06:06:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:06:47+00:00</t>
+    <t>2023-02-14T06:14:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:14:37+00:00</t>
+    <t>2023-02-14T06:14:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:14:44+00:00</t>
+    <t>2023-02-14T10:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T10:08:14+00:00</t>
+    <t>2023-02-14T11:00:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:00:57+00:00</t>
+    <t>2023-02-14T11:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:01:25+00:00</t>
+    <t>2023-02-16T14:12:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:12:28+00:00</t>
+    <t>2023-02-17T05:42:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:42:44+00:00</t>
+    <t>2023-02-17T06:29:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:29:33+00:00</t>
+    <t>2023-02-17T06:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:55:40+00:00</t>
+    <t>2023-02-17T08:02:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T08:02:48+00:00</t>
+    <t>2023-02-17T08:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T08:03:26+00:00</t>
+    <t>2023-02-18T08:11:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:11:00+00:00</t>
+    <t>2023-02-18T08:11:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:11:48+00:00</t>
+    <t>2023-02-18T08:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:36:05+00:00</t>
+    <t>2023-02-18T10:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:10:12+00:00</t>
+    <t>2023-02-18T10:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:12:19+00:00</t>
+    <t>2023-02-18T10:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:18:24+00:00</t>
+    <t>2023-02-18T11:11:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:11:58+00:00</t>
+    <t>2023-02-18T11:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:12:59+00:00</t>
+    <t>2023-02-18T11:19:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:19:13+00:00</t>
+    <t>2023-02-18T14:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T14:34:08+00:00</t>
+    <t>2023-02-18T15:11:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:11:10+00:00</t>
+    <t>2023-02-18T15:16:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:16:43+00:00</t>
+    <t>2023-02-20T07:17:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:17:54+00:00</t>
+    <t>2023-02-20T07:28:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:28:36+00:00</t>
+    <t>2023-02-20T07:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:46:41+00:00</t>
+    <t>2023-02-20T07:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:47:29+00:00</t>
+    <t>2023-02-20T08:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T08:02:38+00:00</t>
+    <t>2023-02-20T08:12:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T08:12:47+00:00</t>
+    <t>2023-02-20T09:50:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T09:50:24+00:00</t>
+    <t>2023-02-20T09:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T09:50:37+00:00</t>
+    <t>2023-02-27T06:00:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:00:31+00:00</t>
+    <t>2023-02-27T06:07:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:07:40+00:00</t>
+    <t>2023-02-27T06:39:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A patient resource for an HIV Patient</t>
+    <t>A patient resource for an HIV Patient.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:39:33+00:00</t>
+    <t>2023-02-27T06:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:55:00+00:00</t>
+    <t>2023-02-27T11:09:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:09:18+00:00</t>
+    <t>2023-02-27T12:02:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:02:46+00:00</t>
+    <t>2023-02-27T12:36:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:36:36+00:00</t>
+    <t>2023-02-27T13:37:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T13:37:14+00:00</t>
+    <t>2023-02-27T13:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T13:39:32+00:00</t>
+    <t>2023-02-28T10:46:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T10:46:33+00:00</t>
+    <t>2023-02-28T10:52:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T10:52:31+00:00</t>
+    <t>2023-03-01T07:12:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:12:03+00:00</t>
+    <t>2023-03-01T07:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:12:59+00:00</t>
+    <t>2023-03-01T07:50:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:50:24+00:00</t>
+    <t>2023-03-01T07:55:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:55:50+00:00</t>
+    <t>2023-03-01T08:26:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:26:46+00:00</t>
+    <t>2023-03-02T06:00:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:00:15+00:00</t>
+    <t>2023-03-02T06:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:01:33+00:00</t>
+    <t>2023-03-02T06:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:25:26+00:00</t>
+    <t>2023-03-02T06:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2423" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="499">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:25:57+00:00</t>
+    <t>2023-03-03T14:40:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -635,7 +635,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/identifier/nid</t>
+    <t>http://openhie.org/fhir/hiv-cbs/identifier/nid</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -728,6 +728,39 @@
   </si>
   <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MN</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MN.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MN.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MN.use</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MN.type</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MN.system</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-cbs/identifier/mn</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MN.value</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MN.period</t>
+  </si>
+  <si>
+    <t>Patient.identifier:MN.assigner</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -1831,7 +1864,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO64"/>
+  <dimension ref="A1:AO73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3071,7 +3104,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>79</v>
@@ -4235,15 +4268,17 @@
         <v>231</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>87</v>
@@ -4252,32 +4287,28 @@
         <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>233</v>
+        <v>146</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>236</v>
+        <v>148</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q21" t="s" s="2">
-        <v>237</v>
-      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4321,13 +4352,13 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>80</v>
@@ -4336,16 +4367,16 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>238</v>
+        <v>151</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>239</v>
+        <v>153</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
@@ -4353,10 +4384,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>240</v>
+        <v>158</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4367,7 +4398,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4376,23 +4407,19 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>241</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>242</v>
+        <v>160</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4440,31 +4467,31 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>240</v>
+        <v>162</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>246</v>
+        <v>163</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -4472,21 +4499,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4498,15 +4525,17 @@
         <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4543,31 +4572,31 @@
         <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>163</v>
@@ -4587,44 +4616,46 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>172</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4648,46 +4679,46 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
@@ -4696,7 +4727,7 @@
         <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -4704,10 +4735,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4724,25 +4755,25 @@
         <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>254</v>
+        <v>187</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -4767,13 +4798,13 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -4791,7 +4822,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4806,7 +4837,7 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>259</v>
+        <v>181</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>80</v>
@@ -4815,7 +4846,7 @@
         <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -4823,10 +4854,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4834,7 +4865,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>87</v>
@@ -4849,32 +4880,32 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>263</v>
+        <v>197</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>265</v>
+        <v>199</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>80</v>
@@ -4910,7 +4941,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>266</v>
+        <v>202</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4925,7 +4956,7 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>267</v>
+        <v>203</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>80</v>
@@ -4934,7 +4965,7 @@
         <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>268</v>
+        <v>204</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -4942,14 +4973,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>269</v>
+        <v>206</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4971,13 +5002,13 @@
         <v>159</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>271</v>
+        <v>207</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>272</v>
+        <v>208</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>273</v>
+        <v>209</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4991,7 +5022,7 @@
         <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>80</v>
@@ -5027,7 +5058,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5042,7 +5073,7 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>275</v>
+        <v>212</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>80</v>
@@ -5051,7 +5082,7 @@
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -5059,21 +5090,21 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G28" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -5085,17 +5116,15 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>279</v>
+        <v>217</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5144,13 +5173,13 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>282</v>
+        <v>219</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>80</v>
@@ -5159,7 +5188,7 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>283</v>
+        <v>220</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
@@ -5168,7 +5197,7 @@
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>284</v>
+        <v>221</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5176,10 +5205,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5190,7 +5219,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5202,15 +5231,17 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>286</v>
+        <v>225</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -5259,13 +5290,13 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
@@ -5274,7 +5305,7 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>80</v>
@@ -5283,7 +5314,7 @@
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -5291,10 +5322,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5305,32 +5336,38 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>159</v>
+        <v>243</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="R30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5374,13 +5411,13 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>294</v>
+        <v>242</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
@@ -5389,16 +5426,16 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>80</v>
@@ -5406,10 +5443,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5420,7 +5457,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5432,17 +5469,19 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5491,13 +5530,13 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
@@ -5506,16 +5545,16 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>80</v>
@@ -5523,10 +5562,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5537,7 +5576,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5546,23 +5585,19 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>305</v>
+        <v>159</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>306</v>
+        <v>160</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5610,31 +5645,31 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>304</v>
+        <v>162</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>310</v>
+        <v>163</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -5642,21 +5677,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5665,23 +5700,21 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>314</v>
+        <v>134</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>315</v>
+        <v>166</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5705,55 +5738,55 @@
         <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>318</v>
+        <v>80</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>313</v>
+        <v>170</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>320</v>
+        <v>163</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>322</v>
+        <v>80</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -5761,10 +5794,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>323</v>
+        <v>262</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>323</v>
+        <v>262</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5772,7 +5805,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>87</v>
@@ -5781,25 +5814,25 @@
         <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>324</v>
+        <v>107</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>325</v>
+        <v>263</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>326</v>
+        <v>264</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>328</v>
+        <v>266</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5824,13 +5857,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -5848,7 +5881,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5863,27 +5896,27 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>329</v>
+        <v>270</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>331</v>
+        <v>271</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>333</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>333</v>
+        <v>272</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5900,25 +5933,25 @@
         <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>334</v>
+        <v>159</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>335</v>
+        <v>273</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>336</v>
+        <v>274</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>337</v>
+        <v>275</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>338</v>
+        <v>276</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5967,7 +6000,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>333</v>
+        <v>277</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5982,16 +6015,16 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>340</v>
+        <v>279</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -5999,21 +6032,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>341</v>
+        <v>280</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>341</v>
+        <v>280</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6025,20 +6058,18 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>342</v>
+        <v>159</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>343</v>
+        <v>282</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>344</v>
+        <v>283</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6086,13 +6117,13 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>341</v>
+        <v>285</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
@@ -6101,16 +6132,16 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>347</v>
+        <v>286</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -6118,21 +6149,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>80</v>
+        <v>289</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6141,21 +6172,21 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>351</v>
+        <v>290</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6179,13 +6210,13 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -6203,13 +6234,13 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
@@ -6218,16 +6249,16 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>356</v>
+        <v>294</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>358</v>
+        <v>295</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6235,10 +6266,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>359</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>359</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6249,7 +6280,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6258,23 +6289,19 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>360</v>
+        <v>159</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>361</v>
+        <v>297</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6322,13 +6349,13 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>359</v>
+        <v>299</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
@@ -6337,16 +6364,16 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>365</v>
+        <v>300</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>366</v>
+        <v>301</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -6354,10 +6381,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>367</v>
+        <v>302</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>367</v>
+        <v>302</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6377,23 +6404,19 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>368</v>
+        <v>159</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>369</v>
+        <v>303</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6441,7 +6464,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>367</v>
+        <v>305</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6456,16 +6479,16 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>373</v>
+        <v>306</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>374</v>
+        <v>307</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -6473,10 +6496,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>375</v>
+        <v>308</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>375</v>
+        <v>308</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6487,7 +6510,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6496,22 +6519,20 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>376</v>
+        <v>216</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>377</v>
+        <v>309</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>380</v>
+        <v>311</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6560,31 +6581,31 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>381</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>382</v>
+        <v>313</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -6592,10 +6613,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>383</v>
+        <v>315</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>383</v>
+        <v>315</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6606,7 +6627,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6615,19 +6636,23 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>159</v>
+        <v>316</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>160</v>
+        <v>317</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6675,31 +6700,31 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>162</v>
+        <v>315</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>163</v>
+        <v>321</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>80</v>
+        <v>323</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -6707,21 +6732,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>384</v>
+        <v>324</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>384</v>
+        <v>324</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6730,21 +6755,23 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>134</v>
+        <v>325</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>166</v>
+        <v>326</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6768,13 +6795,13 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -6792,31 +6819,31 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>170</v>
+        <v>324</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>163</v>
+        <v>331</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>80</v>
+        <v>333</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -6824,45 +6851,45 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>133</v>
+        <v>335</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>136</v>
+        <v>338</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>142</v>
+        <v>339</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -6911,42 +6938,42 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>130</v>
+        <v>340</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>80</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>344</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>390</v>
+        <v>344</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6957,29 +6984,31 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>184</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O44" t="s" s="2">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7004,13 +7033,13 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>394</v>
+        <v>80</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>395</v>
+        <v>80</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -7028,13 +7057,13 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>390</v>
+        <v>344</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
@@ -7043,7 +7072,7 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>163</v>
@@ -7052,7 +7081,7 @@
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7060,10 +7089,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7074,7 +7103,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -7083,20 +7112,22 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>241</v>
+        <v>353</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>399</v>
+        <v>354</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7145,13 +7176,13 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
@@ -7160,16 +7191,16 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>246</v>
+        <v>358</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>163</v>
+        <v>359</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>402</v>
+        <v>360</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7177,10 +7208,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>403</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>403</v>
+        <v>361</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7191,7 +7222,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7203,19 +7234,17 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>305</v>
+        <v>184</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>404</v>
+        <v>362</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>309</v>
+        <v>364</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7240,13 +7269,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7264,13 +7293,13 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>403</v>
+        <v>361</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
@@ -7279,16 +7308,16 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>163</v>
+        <v>368</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>407</v>
+        <v>369</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7296,10 +7325,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>408</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>408</v>
+        <v>370</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7322,17 +7351,19 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O47" t="s" s="2">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7381,7 +7412,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>408</v>
+        <v>370</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7396,7 +7427,7 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>347</v>
+        <v>376</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>163</v>
@@ -7405,7 +7436,7 @@
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -7413,10 +7444,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7427,7 +7458,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7439,17 +7470,19 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>107</v>
+        <v>379</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>314</v>
+        <v>380</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O48" t="s" s="2">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7474,13 +7507,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>318</v>
+        <v>80</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7498,13 +7531,13 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
@@ -7513,7 +7546,7 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>320</v>
+        <v>384</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>163</v>
@@ -7522,7 +7555,7 @@
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -7530,10 +7563,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7544,7 +7577,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7556,17 +7589,19 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>224</v>
+        <v>387</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O49" t="s" s="2">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7615,22 +7650,22 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>421</v>
+        <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>392</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>163</v>
@@ -7639,7 +7674,7 @@
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>423</v>
+        <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -7647,10 +7682,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7673,13 +7708,13 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>425</v>
+        <v>160</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>426</v>
+        <v>161</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7730,7 +7765,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>424</v>
+        <v>162</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7742,13 +7777,13 @@
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>427</v>
+        <v>163</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -7762,14 +7797,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7788,20 +7823,18 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>376</v>
+        <v>133</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>429</v>
+        <v>134</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>430</v>
+        <v>166</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7849,7 +7882,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>428</v>
+        <v>170</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7861,13 +7894,13 @@
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>433</v>
+        <v>163</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>434</v>
+        <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -7881,42 +7914,46 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>160</v>
+        <v>398</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -7964,22 +8001,22 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>162</v>
+        <v>400</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
@@ -7996,14 +8033,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8022,18 +8059,18 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>134</v>
+        <v>402</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8057,13 +8094,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8081,7 +8118,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>170</v>
+        <v>401</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8093,19 +8130,19 @@
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AL53" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>80</v>
@@ -8113,45 +8150,43 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>133</v>
+        <v>252</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>142</v>
+        <v>412</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8200,31 +8235,31 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>130</v>
+        <v>257</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>80</v>
@@ -8232,10 +8267,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8243,10 +8278,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8258,19 +8293,19 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>184</v>
+        <v>316</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>442</v>
+        <v>320</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8295,13 +8330,13 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8319,13 +8354,13 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
@@ -8334,16 +8369,16 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>443</v>
+        <v>321</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>444</v>
+        <v>163</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>80</v>
@@ -8351,10 +8386,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8377,19 +8412,17 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>232</v>
+        <v>353</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8438,7 +8471,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8453,16 +8486,16 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>451</v>
+        <v>358</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>452</v>
+        <v>163</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
@@ -8470,21 +8503,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>455</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8496,18 +8529,18 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>456</v>
+        <v>107</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>457</v>
+        <v>325</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8531,13 +8564,13 @@
         <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>80</v>
@@ -8555,13 +8588,13 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
@@ -8570,7 +8603,7 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>460</v>
+        <v>331</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>163</v>
@@ -8579,7 +8612,7 @@
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>461</v>
+        <v>427</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -8587,10 +8620,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8598,7 +8631,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>87</v>
@@ -8610,22 +8643,20 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>224</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>463</v>
+        <v>429</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>466</v>
+        <v>431</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8674,7 +8705,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8683,22 +8714,22 @@
         <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>80</v>
+        <v>432</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>467</v>
+        <v>163</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>80</v>
+        <v>434</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
@@ -8706,10 +8737,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8720,32 +8751,28 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>376</v>
+        <v>216</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8793,13 +8820,13 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
@@ -8808,7 +8835,7 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>473</v>
+        <v>438</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>163</v>
@@ -8825,10 +8852,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>474</v>
+        <v>439</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>474</v>
+        <v>439</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8839,7 +8866,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8851,16 +8878,20 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>159</v>
+        <v>387</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>160</v>
+        <v>440</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8908,25 +8939,25 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>162</v>
+        <v>439</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>163</v>
+        <v>444</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>80</v>
+        <v>445</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -8940,21 +8971,21 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -8966,17 +8997,15 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9025,19 +9054,19 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>163</v>
@@ -9057,14 +9086,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>386</v>
+        <v>132</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9077,26 +9106,24 @@
         <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>387</v>
+        <v>134</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>388</v>
+        <v>166</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="O62" t="s" s="2">
-        <v>142</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9144,7 +9171,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>389</v>
+        <v>170</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9159,7 +9186,7 @@
         <v>138</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
@@ -9176,44 +9203,46 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>478</v>
+        <v>133</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>479</v>
+        <v>398</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>480</v>
+        <v>399</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9261,31 +9290,31 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>477</v>
+        <v>400</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>482</v>
+        <v>80</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9293,10 +9322,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9316,19 +9345,23 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>484</v>
+        <v>450</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9352,13 +9385,13 @@
         <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>485</v>
+        <v>112</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>486</v>
+        <v>113</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>80</v>
@@ -9376,7 +9409,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>87</v>
@@ -9391,18 +9424,1075 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="B71" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="P71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AM64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO64" t="s" s="2">
+      <c r="AM72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO73" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/branches/Richard/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:40:41+00:00</t>
+    <t>2023-03-03T14:42:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
